--- a/Players Skeleton.xlsx
+++ b/Players Skeleton.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\03_테니스반\01_2017\999_Tournament\ver10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\03_테니스반\01_2017\999_Tournament\ver11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="MetaSheet" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="복식" sheetId="3" r:id="rId3"/>
     <sheet name="학교정보" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,23 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="87">
-  <si>
-    <t>인제</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연세원주</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>강원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>B</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -60,50 +49,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>고려</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>동국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>G</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>동아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>H</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>부산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>J</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>서울</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>K</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>순천향</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>L</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -116,90 +81,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>울산</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>원광</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전남</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Q</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>전북</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>R</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>조선</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>S</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>중앙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>충남</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>충북</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>W</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>카톨릭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>한림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,14 +129,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>서남</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>연세</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>경북대</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -337,10 +250,6 @@
   </si>
   <si>
     <t>TS1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TS2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +294,164 @@
         <scheme val="minor"/>
       </rPr>
       <t>. 수식을 변경하지 말아주세요</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고려대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서남대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순천향대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연세대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>울산대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원광대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전남대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전북대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>차의대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한림대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인제대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성균관대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원연대</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>단식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S4</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -489,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -863,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -875,10 +945,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -889,7 +959,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -900,25 +970,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -944,7 +1014,7 @@
   <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I11"/>
+      <selection activeCell="H5" sqref="H5:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,23 +1034,23 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="8" t="str">
         <f>IFERROR(VLOOKUP(단식!A2, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -989,14 +1059,14 @@
         <f t="shared" ref="C2:C65" si="0">IF(B2="","",IF(A1=A2,C1+1,1))</f>
         <v/>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="8" t="str">
         <f>IF(D2="","",A2&amp;" "&amp;C2&amp;"시드 "&amp;D2)</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="8" t="str">
         <f>IFERROR(VLOOKUP(단식!A3, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -1005,14 +1075,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="8" t="str">
         <f t="shared" ref="E3:E66" si="1">IF(D3="","",A3&amp;" "&amp;C3&amp;"시드 "&amp;D3)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="8" t="str">
         <f>IFERROR(VLOOKUP(단식!A4, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -1021,32 +1091,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H4" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="8" t="str">
         <f>IFERROR(VLOOKUP(단식!A5, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -1061,7 +1131,7 @@
         <v/>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="1" t="str">
@@ -1077,7 +1147,7 @@
         <v>#N/A</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1096,7 +1166,7 @@
         <v/>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="1" t="str">
@@ -1127,8 +1197,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
+      <c r="H7" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="1" t="str">
@@ -1159,8 +1229,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>80</v>
+      <c r="H8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="1" t="str">
@@ -1191,8 +1261,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>80</v>
+      <c r="H9" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="1" t="str">
@@ -1223,8 +1293,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>80</v>
+      <c r="H10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1" t="str">
@@ -1255,8 +1325,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>80</v>
+      <c r="H11" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="1" t="str">
@@ -1286,6 +1356,22 @@
       <c r="E12" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(I12, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="K12" s="1">
+        <f>COUNTIF(I$4:I11, I12)+1</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="array" ref="L12">INDEX($E$2:$E$128, MATCH(1, ($B$2:$B$128=J12)*($C$2:$C$128=K12), 0))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E115"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3174,26 +3260,26 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="8" t="str">
         <f>IFERROR(VLOOKUP(복식!A2, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -3202,7 +3288,7 @@
         <f t="shared" ref="C2:C65" si="0">IF(B2="","",IF(A1=A2,C1+1,1))</f>
         <v/>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="8" t="str">
         <f t="shared" ref="F2:F65" si="1">IF(D2="","",A2&amp;" "&amp;C2&amp;"시드 "&amp;D2&amp;(IF(E2&lt;&gt;""," / "&amp;E2,"")))</f>
@@ -3210,7 +3296,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="8" t="str">
         <f>IFERROR(VLOOKUP(복식!A3, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -3219,7 +3305,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3227,7 +3313,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="8" t="str">
         <f>IFERROR(VLOOKUP(복식!A4, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -3236,33 +3322,33 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H4" s="6" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="8" t="str">
         <f>IFERROR(VLOOKUP(복식!A5, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
         <v/>
@@ -3278,7 +3364,7 @@
         <v/>
       </c>
       <c r="H5" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="1" t="str">
@@ -3294,7 +3380,7 @@
         <v>#N/A</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3314,7 +3400,7 @@
         <v/>
       </c>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="1" t="str">
@@ -3346,8 +3432,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
+      <c r="H7" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="1" t="str">
@@ -3379,8 +3465,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>80</v>
+      <c r="H8" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="1" t="str">
@@ -3412,8 +3498,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>80</v>
+      <c r="H9" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="1" t="str">
@@ -3445,8 +3531,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>80</v>
+      <c r="H10" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="1" t="str">
@@ -3478,8 +3564,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>80</v>
+      <c r="H11" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="1" t="str">
@@ -3510,6 +3596,22 @@
       <c r="F12" s="8" t="str">
         <f t="shared" si="1"/>
         <v/>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="1" t="str">
+        <f>IFERROR(VLOOKUP(I12, 학교정보!$A$2:$B$39, 2, FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="K12" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1" t="e">
+        <f t="array" ref="L12">INDEX($F$2:$F$128, MATCH(1, ($B$2:$B$128=J12)*($C$2:$C$128=K12), 0))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5493,434 +5595,604 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C40"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C20">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C28">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C29">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C30">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A31)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C34">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <f>COUNTIF(단식!$A$2:$A$115, 학교정보!A39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <f>COUNTIF(복식!$A$2:$A$115, 학교정보!A39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
       <c r="C40">
         <f>SUM(C2:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>SUM(D2:D39)</f>
         <v>0</v>
       </c>
     </row>
